--- a/view/Resultados compilados.xlsx
+++ b/view/Resultados compilados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Repositorios-GitHub/Taller-2/view/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{FDD6D885-069D-4D81-B7F4-759D313CBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA9D515-21BA-4059-AB2E-95FED3BBFF50}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{FDD6D885-069D-4D81-B7F4-759D313CBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEE78A8-2F59-477F-AA16-944A374D9650}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6EB2032-48DF-4DDF-8188-AEBD5CC5350D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C6EB2032-48DF-4DDF-8188-AEBD5CC5350D}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="6" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDBDDA-51B0-48DE-A3D4-3122824D30F9}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03387A1-D0AF-4188-AEBB-AD5F6E273A30}">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,32 +1728,32 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>99325911</v>
+        <v>97915701</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F6" si="0">+(E3-MIN($E$2:$E$6))/E3</f>
-        <v>2.5665256672048043E-2</v>
+        <f t="shared" ref="F3:F7" si="0">+(E3-MIN($E$2:$E$6))/E3</f>
+        <v>1.1632608339289733E-2</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>10</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>118459734</v>
+        <v>99325911</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.18304150505689976</v>
+        <v>2.5665256672048043E-2</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1761,17 +1761,17 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>119370083</v>
+        <v>118459734</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.1892718546572511</v>
+        <v>0.18304150505689976</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1779,17 +1779,17 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>121089040</v>
+        <v>119370083</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.20078079733723217</v>
+        <v>0.1892718546572511</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1800,12 +1800,19 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>121089040</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20078079733723217</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:E6" xr:uid="{D03387A1-D0AF-4188-AEBB-AD5F6E273A30}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E6">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E7">
       <sortCondition ref="E1:E6"/>
     </sortState>
   </autoFilter>

--- a/view/Resultados compilados.xlsx
+++ b/view/Resultados compilados.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/af_diaz27_uniandes_edu_co/Documents/Maestría en Economía Aplicada/Big Data y Machine Learning/Repositorios-GitHub/Taller-2/view/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C1077148\OneDrive - Ecopetrol S.A\Documentos\GitHub\Taller-2\view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{FDD6D885-069D-4D81-B7F4-759D313CBC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEE78A8-2F59-477F-AA16-944A374D9650}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB203A6-CC6F-492B-9816-8B8FF354AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C6EB2032-48DF-4DDF-8188-AEBD5CC5350D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6EB2032-48DF-4DDF-8188-AEBD5CC5350D}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="6" r:id="rId1"/>
     <sheet name="Random Forest" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Modelos!$D$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Modelos!$E$1:$F$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Random Forest'!$B$1:$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>mtry</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Todas consideradas</t>
   </si>
   <si>
-    <t>RandomForest</t>
-  </si>
-  <si>
     <t>Regresión Lineal</t>
   </si>
   <si>
@@ -95,12 +92,51 @@
   </si>
   <si>
     <t>*El Test MAE de la Regresión Lineal es 4.133.457.140</t>
+  </si>
+  <si>
+    <t>Nombre del archivo cargado</t>
+  </si>
+  <si>
+    <t>Mod_lineal_1.csv</t>
+  </si>
+  <si>
+    <t>arbol4.csv</t>
+  </si>
+  <si>
+    <t>ElasticNet.csv</t>
+  </si>
+  <si>
+    <t>Ridge.csv</t>
+  </si>
+  <si>
+    <t>Lasso.csv</t>
+  </si>
+  <si>
+    <t>Boosting.csv</t>
+  </si>
+  <si>
+    <t>Random_Forest_11.csv</t>
+  </si>
+  <si>
+    <t>RandomForest 11</t>
+  </si>
+  <si>
+    <t>Random_Forest_10.csv</t>
+  </si>
+  <si>
+    <t>RandomForest 10 (mejor modelo)</t>
+  </si>
+  <si>
+    <t>Todas consideradas, se usó lnprice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,10 +174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modelos!$C$1</c:f>
+              <c:f>Modelos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -197,7 +234,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -208,21 +245,79 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Modelos!$B$2:$B$8</c:f>
+              <c:f>Modelos!$B$2:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Regresión Lineal</c:v>
                 </c:pt>
@@ -242,37 +337,43 @@
                   <c:v>Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForest</c:v>
+                  <c:v>RandomForest 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForest 10 (mejor modelo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modelos!$C$2:$C$8</c:f>
+              <c:f>Modelos!$D$2:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>192904874</c:v>
+                  <c:v>192.90487400000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184172335</c:v>
+                  <c:v>184.172335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177206395</c:v>
+                  <c:v>177.20639499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177413993</c:v>
+                  <c:v>177.413993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177211304</c:v>
+                  <c:v>177.21130400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153465890.54892001</c:v>
+                  <c:v>153.46589054891999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96776686</c:v>
+                  <c:v>89.036382000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.776685999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,7 +390,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modelos!$D$1</c:f>
+              <c:f>Modelos!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -301,7 +402,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -312,21 +413,79 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Modelos!$B$2:$B$8</c:f>
+              <c:f>Modelos!$B$2:$B$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Regresión Lineal</c:v>
                 </c:pt>
@@ -346,34 +505,40 @@
                   <c:v>Boosting</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>RandomForest</c:v>
+                  <c:v>RandomForest 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RandomForest 10 (mejor modelo)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modelos!$D$2:$D$8</c:f>
+              <c:f>Modelos!$E$2:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>290088615.01710999</c:v>
+                  <c:v>290.08861501710999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246897277.18963999</c:v>
+                  <c:v>246.89727718963999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>246161165.14802</c:v>
+                  <c:v>246.16116514801999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245947033.28632</c:v>
+                  <c:v>245.94703328631999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>229008831.91477999</c:v>
+                  <c:v>229.00883191477999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210634492.68151999</c:v>
+                  <c:v>216.87952100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210.63449681520001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,8 +551,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -434,9 +600,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-CO"/>
@@ -460,9 +626,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -484,14 +649,14 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Mean Absolute Error [COP]</a:t>
+                  <a:t>Mean Absolute Error [MCOP]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -516,16 +681,16 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -548,9 +713,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-CO"/>
@@ -590,9 +755,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="es-CO"/>
@@ -630,7 +795,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-CO"/>
     </a:p>
@@ -1190,15 +1358,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1524,154 +1692,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CDBDDA-51B0-48DE-A3D4-3122824D30F9}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>192.90487400000001</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>192904874</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>184.172335</v>
+      </c>
+      <c r="E3" s="3">
+        <v>290.08861501710999</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>184172335</v>
-      </c>
-      <c r="D3" s="1">
-        <v>290088615.01710999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>177206395</v>
-      </c>
-      <c r="D4" s="1">
-        <v>246897277.18963999</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>177.20639499999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>246.89727718963999</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>177413993</v>
-      </c>
-      <c r="D5" s="1">
-        <v>246161165.14802</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>177.413993</v>
+      </c>
+      <c r="E5" s="3">
+        <v>246.16116514801999</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>177211304</v>
-      </c>
-      <c r="D6" s="1">
-        <v>245947033.28632</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>177.21130400000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>245.94703328631999</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>153465890.54892001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>229008831.91477999</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>153.46589054891999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>229.00883191477999</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>96776686</v>
-      </c>
-      <c r="D8" s="1">
-        <v>210634492.68151999</v>
-      </c>
-      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>89.036382000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>216.87952100000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>96.776685999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>210.63449681520001</v>
+      </c>
+      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>17</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
         <v>4133457140</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>+C11/D3</f>
-        <v>14.24894644609269</v>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>+D12/E3</f>
+        <v>14248946.446092691</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:E8" xr:uid="{F0CDBDDA-51B0-48DE-A3D4-3122824D30F9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E8">
-      <sortCondition descending="1" ref="D1:D8"/>
+  <autoFilter ref="E1:F9" xr:uid="{F0CDBDDA-51B0-48DE-A3D4-3122824D30F9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:F9">
+      <sortCondition descending="1" ref="E1:E9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1679,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03387A1-D0AF-4188-AEBB-AD5F6E273A30}">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
@@ -1693,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
